--- a/public/selisihlebih.xlsx
+++ b/public/selisihlebih.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\manonjaya\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E1047-ED6D-48DE-AA68-F145C4ABA6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE26150D-3D0E-4692-9814-C75E558A38FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>02/01/2023</t>
   </si>
@@ -84,33 +84,6 @@
     <t>SANDY SELISIH KURANG SETORAN TGL 19/01/2023</t>
   </si>
   <si>
-    <t>24/01/2023</t>
-  </si>
-  <si>
-    <t>ARJUNA TARIK SELISIH LEBIH SETORAN TGL 01/01/2023</t>
-  </si>
-  <si>
-    <t>ARJUNA TARIK SELISIH LEBIH SETORAN TGL 12/01/2023</t>
-  </si>
-  <si>
-    <t>ARJUNA TARIK SELISIH LEBIH SETORAN TGL 19/01/2023</t>
-  </si>
-  <si>
-    <t>SANDY TARIK SELISIH LEBIH SETORAN TGL 05/01/2023</t>
-  </si>
-  <si>
-    <t>SANDY TARIK SELISIH LEBIH SETORAN TGL 11/01/2023</t>
-  </si>
-  <si>
-    <t>SANDY TARIK SELISIH LEBIH SETORAN TGL 16/01/2023</t>
-  </si>
-  <si>
-    <t>SANDY TARIK SELISIH LEBIH SETORAN TGL 19/01/2023</t>
-  </si>
-  <si>
-    <t>IQBAL TARIK SELISIH LEBIH SETORAN</t>
-  </si>
-  <si>
     <t>30/01/2023</t>
   </si>
   <si>
@@ -118,9 +91,6 @@
   </si>
   <si>
     <t>31/01/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDY TARIK SELISIH LEBIH SETORAN </t>
   </si>
   <si>
     <t xml:space="preserve">ARJUNA SELISIH LEBIH SETORAN </t>
@@ -478,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF540FE3-B02D-4707-9702-507CCE21848D}">
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -513,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -530,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -547,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -564,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -581,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -598,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -615,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -632,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -649,7 +619,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -666,202 +636,32 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>17000</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>11000</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1000</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>22500</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2500</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18">
-        <v>8000</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20">
-        <v>2000</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21">
-        <v>22000</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
         <v>14500</v>
       </c>
     </row>
